--- a/biology/Botanique/Parc_Ten_Reuken/Parc_Ten_Reuken.xlsx
+++ b/biology/Botanique/Parc_Ten_Reuken/Parc_Ten_Reuken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Ten Reuken est un parc de promenade de type paysager bruxellois de la commune d'Auderghem et de Watermael-Boitsfort longeant le boulevard du Souverain.
-Une partie de cette promenade s'insère dans la promenade verte[1] de la Région bruxelloise.
+Une partie de cette promenade s'insère dans la promenade verte de la Région bruxelloise.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Ten Reuken a été créé au début du XXe siècle dans le contexte du percement du boulevard du Souverain lequel il longe et dont les travaux, commencés en 1901, s’interrompirent brusquement en avril 1902 pendant quatre ans. En 1910 seulement eut lieu la réception officielle des travaux. Ten Reuken signifie Au lieu défriché, Au Sart (Ten = au, reuken = sart, lieu défriché). 
 Le parc, relique de la forêt de Soignes, fut aménagé là où s’élargissait la Woluwe. Il comprenait un étang, une ceinture de gazon et de prés humides et des peuplements d’arbres forestiers. Les plans furent signés par l’ingénieur J. Christophe.
@@ -545,7 +559,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux oiseaux d’eau fréquentent l’étang Ten Reuken: des poules d’eau, des ouettes d’Égypte, des colvert, des foulques, des hérons, des grèbe huppé ou encore des fuligule morillon.
 De nombreuses chauve-souris en ont fait leur terrain de chasse de prédilection. 16 des 18 espèces de
